--- a/OutBoundProd_12_18_2017.xlsx
+++ b/OutBoundProd_12_18_2017.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="39">
-  <si>
-    <t>HOUR 01:14 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="42">
+  <si>
+    <t>HOUR 11:24 PM</t>
   </si>
   <si>
     <t>Tech</t>
@@ -45,88 +45,97 @@
     <t xml:space="preserve">     Tech Total    </t>
   </si>
   <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2469</t>
+  </si>
+  <si>
+    <t>4195</t>
+  </si>
+  <si>
+    <t>2515</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>Indeed.com</t>
+  </si>
+  <si>
+    <t>7946</t>
+  </si>
+  <si>
+    <t>Yuppers</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>JonDon</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>Mr.Lamb</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>2273</t>
   </si>
   <si>
     <t>Vince</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>5555</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>6666</t>
-  </si>
-  <si>
-    <t>asdfasdf</t>
-  </si>
-  <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>4444</t>
-  </si>
-  <si>
-    <t>Mr.Lamb</t>
-  </si>
-  <si>
-    <t>7777</t>
-  </si>
-  <si>
-    <t>JonDon</t>
-  </si>
-  <si>
-    <t>7946</t>
-  </si>
-  <si>
-    <t>Yuppers</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>Indeed.com</t>
-  </si>
-  <si>
-    <t>2515</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>4195</t>
-  </si>
-  <si>
-    <t>2469</t>
-  </si>
-  <si>
-    <t>1254</t>
+    <t>6</t>
   </si>
   <si>
     <t>Total Dev</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>OUTBOUND PRODUCTION</t>
@@ -1863,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s" s="1">
         <v>12</v>
@@ -1889,10 +1898,10 @@
     </row>
     <row r="6">
       <c r="B6" t="s" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s" s="1">
         <v>12</v>
@@ -1918,10 +1927,10 @@
     </row>
     <row r="7">
       <c r="B7" t="s" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s" s="1">
         <v>12</v>
@@ -1947,10 +1956,10 @@
     </row>
     <row r="8">
       <c r="B8" t="s" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s" s="1">
         <v>12</v>
@@ -1976,10 +1985,10 @@
     </row>
     <row r="9">
       <c r="B9" t="s" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s" s="1">
         <v>12</v>
@@ -2005,10 +2014,10 @@
     </row>
     <row r="10">
       <c r="B10" t="s" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s" s="1">
         <v>12</v>
@@ -2034,10 +2043,10 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s" s="1">
         <v>12</v>
@@ -2063,10 +2072,10 @@
     </row>
     <row r="12">
       <c r="B12" t="s" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s" s="1">
         <v>12</v>
@@ -2092,10 +2101,10 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s" s="1">
         <v>12</v>
@@ -2121,10 +2130,10 @@
     </row>
     <row r="14">
       <c r="B14" t="s" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s" s="1">
         <v>12</v>
@@ -2150,10 +2159,10 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s" s="1">
         <v>12</v>
@@ -2179,17 +2188,17 @@
     </row>
     <row r="16">
       <c r="B16" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="C16" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s" s="1">
-        <v>12</v>
-      </c>
       <c r="F16" t="s" s="1">
         <v>12</v>
       </c>
@@ -2203,7 +2212,7 @@
         <v>12</v>
       </c>
       <c r="J16" t="s" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2211,13 +2220,13 @@
         <v>35</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="1">
         <v>12</v>
       </c>
       <c r="E17" t="s" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s" s="1">
         <v>12</v>
@@ -2232,21 +2241,21 @@
         <v>12</v>
       </c>
       <c r="J17" t="s" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s" s="1">
         <v>12</v>
       </c>
       <c r="E18" t="s" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="1">
         <v>12</v>
@@ -2261,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="J18" t="s" s="5">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +2295,7 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -2352,7 +2361,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s" s="1">
         <v>12</v>
@@ -2378,10 +2387,10 @@
     </row>
     <row r="6">
       <c r="B6" t="s" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s" s="1">
         <v>12</v>
@@ -2407,10 +2416,10 @@
     </row>
     <row r="7">
       <c r="B7" t="s" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s" s="1">
         <v>12</v>
@@ -2436,10 +2445,10 @@
     </row>
     <row r="8">
       <c r="B8" t="s" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s" s="1">
         <v>12</v>
@@ -2465,10 +2474,10 @@
     </row>
     <row r="9">
       <c r="B9" t="s" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s" s="1">
         <v>12</v>
@@ -2494,10 +2503,10 @@
     </row>
     <row r="10">
       <c r="B10" t="s" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s" s="1">
         <v>12</v>
@@ -2523,10 +2532,10 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s" s="1">
         <v>12</v>
@@ -2552,10 +2561,10 @@
     </row>
     <row r="12">
       <c r="B12" t="s" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s" s="1">
         <v>12</v>
@@ -2581,10 +2590,10 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s" s="1">
         <v>12</v>
@@ -2610,10 +2619,10 @@
     </row>
     <row r="14">
       <c r="B14" t="s" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s" s="1">
         <v>12</v>
@@ -2639,10 +2648,10 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s" s="1">
         <v>12</v>
@@ -2668,17 +2677,17 @@
     </row>
     <row r="16">
       <c r="B16" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="C16" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s" s="1">
-        <v>12</v>
-      </c>
       <c r="F16" t="s" s="1">
         <v>12</v>
       </c>
@@ -2692,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="J16" t="s" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2700,13 +2709,13 @@
         <v>35</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="1">
         <v>12</v>
       </c>
       <c r="E17" t="s" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s" s="1">
         <v>12</v>
@@ -2721,21 +2730,21 @@
         <v>12</v>
       </c>
       <c r="J17" t="s" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s" s="1">
         <v>12</v>
       </c>
       <c r="E18" t="s" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="1">
         <v>12</v>
@@ -2750,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="J18" t="s" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
